--- a/biology/Zoologie/Elpidiidae/Elpidiidae.xlsx
+++ b/biology/Zoologie/Elpidiidae/Elpidiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Elpidiidae sont une famille d'holothuries (concombres de mer) abyssales de l'ordre des Elasipodida.
 </t>
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des espèces de cette famille sont des holothuries benthiques de grandes profondeurs, comme les « cochons de mer » du genre Scotoplanes[1]. Leur corps presque translucide est très ramassé, boudiné, et porté par un petit nombre de podia épais se comportant comme des pattes[2] (absents du tiers médian de la face ventrale)[3]. Les 10-12 tentacules qui entourent la bouche sont peltés, adaptés pour ramasser le sédiment fin pour l'amener à la bouche, et peuvent être protégés par un voile[3]. La face dorsale peut présenter quelques longues papilles fusiformes, parfois fusionnées en une voile antérieure ou postérieure. Les spicules dermiques sont en forme d'araignées cornues[3], et l'anneau calcaire est un pentagone de cinq éléments radiaires[2]. 
-Ce sont des espèces abyssales, vivant parfois à des profondeurs extrêmes (« zone hadale ») : elles sont abondantes à plus de 6 000 mètres de profondeur, et ont été observées jusqu'à plus de 9 500 m[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des espèces de cette famille sont des holothuries benthiques de grandes profondeurs, comme les « cochons de mer » du genre Scotoplanes. Leur corps presque translucide est très ramassé, boudiné, et porté par un petit nombre de podia épais se comportant comme des pattes (absents du tiers médian de la face ventrale). Les 10-12 tentacules qui entourent la bouche sont peltés, adaptés pour ramasser le sédiment fin pour l'amener à la bouche, et peuvent être protégés par un voile. La face dorsale peut présenter quelques longues papilles fusiformes, parfois fusionnées en une voile antérieure ou postérieure. Les spicules dermiques sont en forme d'araignées cornues, et l'anneau calcaire est un pentagone de cinq éléments radiaires. 
+Ce sont des espèces abyssales, vivant parfois à des profondeurs extrêmes (« zone hadale ») : elles sont abondantes à plus de 6 000 mètres de profondeur, et ont été observées jusqu'à plus de 9 500 m.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (9 avril 2014)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (9 avril 2014) :
 genre Achlyonice Théel, 1879 -- 7 espèces
 genre Amperima Pawson, 1965 -- 8 espèces
 genre Ellipinion Hérouard, 1923 -- 10 espèces
